--- a/notebooks/vaughan.xlsx
+++ b/notebooks/vaughan.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/powerbook/Developer/bungol/notebooks/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D73AF56-1C65-F744-A6A8-18A4457ECB76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="30380" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -208,8 +214,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,16 +269,24 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +365,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,6 +417,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,626 +610,641 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="67.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>429900</v>
       </c>
-      <c r="G2" s="2">
-        <v>319.6375</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="G2" s="1">
+        <v>319.63749999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>550000</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>370.68</v>
       </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>509000</v>
       </c>
-      <c r="G4" s="2">
-        <v>809.975</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="G4" s="1">
+        <v>809.97500000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>594990</v>
       </c>
-      <c r="G5" s="2">
-        <v>843.8007500000001</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="G5" s="1">
+        <v>843.80075000000011</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>599999</v>
       </c>
-      <c r="G6" s="2">
-        <v>851.9295750000001</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="G6" s="1">
+        <v>851.92957500000011</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>530000</v>
       </c>
-      <c r="G7" s="2">
-        <v>853.0799999999999</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="G7" s="1">
+        <v>853.07999999999993</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>549900</v>
       </c>
-      <c r="G8" s="2">
-        <v>896.9300000000001</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="G8" s="1">
+        <v>896.93000000000006</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>576000</v>
       </c>
-      <c r="G9" s="2">
-        <v>913.7300000000001</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="G9" s="1">
+        <v>913.73000000000013</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>529000</v>
       </c>
-      <c r="G10" s="2">
-        <v>914.7550000000001</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="G10" s="1">
+        <v>914.75500000000011</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>549900</v>
       </c>
-      <c r="G11" s="2">
-        <v>920.6375</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>2</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="G11" s="1">
+        <v>920.63750000000005</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>529900</v>
       </c>
-      <c r="G12" s="2">
-        <v>947.9300000000001</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="G12" s="1">
+        <v>947.93000000000006</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>569900</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>1053.93</v>
       </c>
-      <c r="H13" s="2">
-        <v>2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>579900</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>1066.93</v>
       </c>
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>578888</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>1076.93</v>
       </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>540000</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>1095.93</v>
       </c>
-      <c r="H16" s="2">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>599900</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>1154.83</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>3</v>
       </c>
-      <c r="I17" s="2">
-        <v>2</v>
-      </c>
-      <c r="J17" s="2">
-        <v>2</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="K14" r:id="rId13"/>
-    <hyperlink ref="K15" r:id="rId14"/>
-    <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notebooks/vaughan.xlsx
+++ b/notebooks/vaughan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/powerbook/Developer/bungol/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D73AF56-1C65-F744-A6A8-18A4457ECB76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A30347-48A8-5245-8969-0A98286CCD63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="30380" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,12 +267,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,7 +615,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -683,10 +684,10 @@
       <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>429900</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>319.63749999999999</v>
       </c>
       <c r="H2" s="1">
@@ -718,10 +719,10 @@
       <c r="E3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>550000</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>370.68</v>
       </c>
       <c r="H3" s="1">
@@ -753,10 +754,10 @@
       <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>509000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>809.97500000000002</v>
       </c>
       <c r="H4" s="1">
@@ -788,10 +789,10 @@
       <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>594990</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>843.80075000000011</v>
       </c>
       <c r="H5" s="1">
@@ -823,10 +824,10 @@
       <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>599999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>851.92957500000011</v>
       </c>
       <c r="H6" s="1">
@@ -858,10 +859,10 @@
       <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>530000</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>853.07999999999993</v>
       </c>
       <c r="H7" s="1">
@@ -893,10 +894,10 @@
       <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>549900</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>896.93000000000006</v>
       </c>
       <c r="H8" s="1">
@@ -928,10 +929,10 @@
       <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>576000</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>913.73000000000013</v>
       </c>
       <c r="H9" s="1">
@@ -963,10 +964,10 @@
       <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>529000</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>914.75500000000011</v>
       </c>
       <c r="H10" s="1">
@@ -998,10 +999,10 @@
       <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>549900</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>920.63750000000005</v>
       </c>
       <c r="H11" s="1">
@@ -1033,10 +1034,10 @@
       <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>529900</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <v>947.93000000000006</v>
       </c>
       <c r="H12" s="1">
@@ -1068,10 +1069,10 @@
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>569900</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>1053.93</v>
       </c>
       <c r="H13" s="1">
@@ -1103,10 +1104,10 @@
       <c r="E14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>579900</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <v>1066.93</v>
       </c>
       <c r="H14" s="1">
@@ -1138,10 +1139,10 @@
       <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>578888</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <v>1076.93</v>
       </c>
       <c r="H15" s="1">
@@ -1173,10 +1174,10 @@
       <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>540000</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <v>1095.93</v>
       </c>
       <c r="H16" s="1">
@@ -1208,10 +1209,10 @@
       <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>599900</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>1154.83</v>
       </c>
       <c r="H17" s="1">
